--- a/xlsx/社会保险_intext.xlsx
+++ b/xlsx/社会保险_intext.xlsx
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B5%E6%AC%8A</t>
   </si>
   <si>
-    <t>債權</t>
+    <t>债权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>保險</t>
+    <t>保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B4%E9%87%91</t>
@@ -71,37 +71,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%89%98%C2%B7%E9%A6%AE%C2%B7%E4%BF%BE%E6%96%AF%E9%BA%A5</t>
   </si>
   <si>
-    <t>奧托·馮·俾斯麥</t>
+    <t>奥托·冯·俾斯麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E6%9C%9F%E7%85%A7%E9%A1%A7%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>長期照顧保險</t>
+    <t>长期照顾保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%96%AF%E7%A6%8F%E6%96%B0%E6%94%BF</t>
   </si>
   <si>
-    <t>羅斯福新政</t>
+    <t>罗斯福新政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%8B%9E%E5%B7%A5%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際勞工組織</t>
+    <t>国际劳工组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%BA%BA%E6%AC%8A%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>世界人權宣言</t>
+    <t>世界人权宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E3%80%81%E7%A4%BE%E4%BC%9A%E5%8F%8A%E6%96%87%E5%8C%96%E6%9D%83%E5%88%A9%E5%9B%BD%E9%99%85%E5%85%AC%E7%BA%A6</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E6%B0%91%E5%81%A5%E5%BA%B7%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>全民健康保險</t>
+    <t>全民健康保险</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Act_for_the_Relief_of_the_Poor_1601</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%96%AF%E7%A6%8F</t>
   </si>
   <si>
-    <t>羅斯福</t>
+    <t>罗斯福</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%94%BF</t>
@@ -149,31 +149,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AF%E6%9E%97%E9%A0%93</t>
   </si>
   <si>
-    <t>柯林頓</t>
+    <t>柯林顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%B7%B4%E9%A6%AC</t>
   </si>
   <si>
-    <t>歐巴馬</t>
+    <t>欧巴马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%97%85%E6%82%A3%E4%BF%9D%E8%AD%B7%E8%88%87%E5%8F%AF%E8%B2%A0%E6%93%94%E7%9A%84%E5%81%A5%E4%BF%9D%E6%B3%95</t>
   </si>
   <si>
-    <t>病患保護與可負擔的健保法</t>
+    <t>病患保护与可负担的健保法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E9%87%91%E8%9E%8D%E9%A2%A8%E6%9A%B4</t>
   </si>
   <si>
-    <t>亞洲金融風暴</t>
+    <t>亚洲金融风暴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E5%B9%B4%E9%87%91</t>
   </si>
   <si>
-    <t>國民年金</t>
+    <t>国民年金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%B9%E9%9D%A9%E9%96%8B%E6%94%BE</t>
   </si>
   <si>
-    <t>改革開放</t>
+    <t>改革开放</t>
   </si>
   <si>
     <t>https://de.wikipedia.org/wiki/Generationenvertrag</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%90%88%E4%BD%9C%E8%88%87%E7%99%BC%E5%B1%95%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>經濟合作與發展組織</t>
+    <t>经济合作与发展组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
@@ -227,13 +227,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%8A%80%E8%A1%8C%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>世界銀行集團</t>
+    <t>世界银行集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%B2%9D%E7%88%BE%E7%B6%93%E6%BF%9F%E5%AD%B8%E7%8D%8E</t>
   </si>
   <si>
-    <t>諾貝爾經濟學獎</t>
+    <t>诺贝尔经济学奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7%E6%96%AF%E8%92%82%E6%A0%BC%E5%88%A9%E8%8C%A8</t>
@@ -245,25 +245,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E8%98%AD%E7%A7%91%C2%B7%E8%8E%AB%E8%BF%AA%E5%88%A9%E5%AE%89%E5%B0%BC</t>
   </si>
   <si>
-    <t>弗蘭科·莫迪利安尼</t>
+    <t>弗兰科·莫迪利安尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
